--- a/PythonResources/Data/Consumption/Sympheny/base_1349_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1349_coo.xlsx
@@ -839,7 +839,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.674587986080298</v>
+        <v>0.6745879860802979</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2183,7 +2183,7 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>0.9066680108858308</v>
+        <v>0.9066680108858306</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2199,7 +2199,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>1.968988981115089</v>
+        <v>1.968988981115088</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>1.311390323145989</v>
+        <v>1.311390323145988</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2567,7 +2567,7 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>1.897462063419401</v>
+        <v>1.8974620634194</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2583,7 +2583,7 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>3.166867029566765</v>
+        <v>3.166867029566764</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -12943,7 +12943,7 @@
         <v>1575</v>
       </c>
       <c r="B1575">
-        <v>3.397250173058449</v>
+        <v>3.397250173058448</v>
       </c>
     </row>
     <row r="1576" spans="1:2">
@@ -15247,7 +15247,7 @@
         <v>1863</v>
       </c>
       <c r="B1863">
-        <v>0.6696233626853748</v>
+        <v>0.6696233626853747</v>
       </c>
     </row>
     <row r="1864" spans="1:2">
@@ -15255,7 +15255,7 @@
         <v>1864</v>
       </c>
       <c r="B1864">
-        <v>0.7107060608849223</v>
+        <v>0.7107060608849222</v>
       </c>
     </row>
     <row r="1865" spans="1:2">
@@ -17351,7 +17351,7 @@
         <v>2126</v>
       </c>
       <c r="B2126">
-        <v>0.3935797513702537</v>
+        <v>0.3935797513702536</v>
       </c>
     </row>
     <row r="2127" spans="1:2">
@@ -18311,7 +18311,7 @@
         <v>2246</v>
       </c>
       <c r="B2246">
-        <v>7.829480719149438</v>
+        <v>7.829480719149437</v>
       </c>
     </row>
     <row r="2247" spans="1:2">
@@ -18503,7 +18503,7 @@
         <v>2270</v>
       </c>
       <c r="B2270">
-        <v>0.4229396080233473</v>
+        <v>0.4229396080233472</v>
       </c>
     </row>
     <row r="2271" spans="1:2">
@@ -22503,7 +22503,7 @@
         <v>2770</v>
       </c>
       <c r="B2770">
-        <v>0.1763276557657917</v>
+        <v>0.1763276557657916</v>
       </c>
     </row>
     <row r="2771" spans="1:2">
@@ -22527,7 +22527,7 @@
         <v>2773</v>
       </c>
       <c r="B2773">
-        <v>0.7906968701771497</v>
+        <v>0.7906968701771496</v>
       </c>
     </row>
     <row r="2774" spans="1:2">
@@ -23279,7 +23279,7 @@
         <v>2867</v>
       </c>
       <c r="B2867">
-        <v>0.2094578713312635</v>
+        <v>0.2094578713312634</v>
       </c>
     </row>
     <row r="2868" spans="1:2">
@@ -23311,7 +23311,7 @@
         <v>2871</v>
       </c>
       <c r="B2871">
-        <v>6.258063116951171</v>
+        <v>6.25806311695117</v>
       </c>
     </row>
     <row r="2872" spans="1:2">
@@ -23495,7 +23495,7 @@
         <v>2894</v>
       </c>
       <c r="B2894">
-        <v>6.54670878292873</v>
+        <v>6.546708782928729</v>
       </c>
     </row>
     <row r="2895" spans="1:2">
@@ -23511,7 +23511,7 @@
         <v>2896</v>
       </c>
       <c r="B2896">
-        <v>13.15068364681189</v>
+        <v>13.15068364681188</v>
       </c>
     </row>
     <row r="2897" spans="1:2">
@@ -23703,7 +23703,7 @@
         <v>2920</v>
       </c>
       <c r="B2920">
-        <v>34.57564192814954</v>
+        <v>34.57564192814953</v>
       </c>
     </row>
     <row r="2921" spans="1:2">
@@ -23839,7 +23839,7 @@
         <v>2937</v>
       </c>
       <c r="B2937">
-        <v>1.491400416512561</v>
+        <v>1.49140041651256</v>
       </c>
     </row>
     <row r="2938" spans="1:2">
@@ -23863,7 +23863,7 @@
         <v>2940</v>
       </c>
       <c r="B2940">
-        <v>6.231041967186595</v>
+        <v>6.231041967186594</v>
       </c>
     </row>
     <row r="2941" spans="1:2">
@@ -24615,7 +24615,7 @@
         <v>3034</v>
       </c>
       <c r="B3034">
-        <v>0.4365468963483935</v>
+        <v>0.4365468963483934</v>
       </c>
     </row>
     <row r="3035" spans="1:2">
@@ -24631,7 +24631,7 @@
         <v>3036</v>
       </c>
       <c r="B3036">
-        <v>2.448180644299095</v>
+        <v>2.448180644299094</v>
       </c>
     </row>
     <row r="3037" spans="1:2">
@@ -24655,7 +24655,7 @@
         <v>3039</v>
       </c>
       <c r="B3039">
-        <v>16.11849682691987</v>
+        <v>16.11849682691986</v>
       </c>
     </row>
     <row r="3040" spans="1:2">
@@ -24815,7 +24815,7 @@
         <v>3059</v>
       </c>
       <c r="B3059">
-        <v>16.12342042036938</v>
+        <v>16.12342042036937</v>
       </c>
     </row>
     <row r="3060" spans="1:2">
@@ -25175,7 +25175,7 @@
         <v>3104</v>
       </c>
       <c r="B3104">
-        <v>1.509708564297735</v>
+        <v>1.509708564297734</v>
       </c>
     </row>
     <row r="3105" spans="1:2">
@@ -25191,7 +25191,7 @@
         <v>3106</v>
       </c>
       <c r="B3106">
-        <v>6.300499803349334</v>
+        <v>6.300499803349333</v>
       </c>
     </row>
     <row r="3107" spans="1:2">
@@ -25367,7 +25367,7 @@
         <v>3128</v>
       </c>
       <c r="B3128">
-        <v>0.279905994533639</v>
+        <v>0.2799059945336389</v>
       </c>
     </row>
     <row r="3129" spans="1:2">
@@ -25415,7 +25415,7 @@
         <v>3134</v>
       </c>
       <c r="B3134">
-        <v>23.57211393898613</v>
+        <v>23.57211393898612</v>
       </c>
     </row>
     <row r="3135" spans="1:2">
@@ -25983,7 +25983,7 @@
         <v>3205</v>
       </c>
       <c r="B3205">
-        <v>8.619629546484292</v>
+        <v>8.61962954648429</v>
       </c>
     </row>
     <row r="3206" spans="1:2">
@@ -25991,7 +25991,7 @@
         <v>3206</v>
       </c>
       <c r="B3206">
-        <v>7.923204837313336</v>
+        <v>7.923204837313335</v>
       </c>
     </row>
     <row r="3207" spans="1:2">
@@ -26151,7 +26151,7 @@
         <v>3226</v>
       </c>
       <c r="B3226">
-        <v>0.5080181305467358</v>
+        <v>0.5080181305467357</v>
       </c>
     </row>
     <row r="3227" spans="1:2">
@@ -26567,7 +26567,7 @@
         <v>3278</v>
       </c>
       <c r="B3278">
-        <v>50.73792356824541</v>
+        <v>50.7379235682454</v>
       </c>
     </row>
     <row r="3279" spans="1:2">
@@ -27927,7 +27927,7 @@
         <v>3448</v>
       </c>
       <c r="B3448">
-        <v>37.84660779064881</v>
+        <v>37.8466077906488</v>
       </c>
     </row>
     <row r="3449" spans="1:2">
@@ -28031,7 +28031,7 @@
         <v>3461</v>
       </c>
       <c r="B3461">
-        <v>14.64604931447754</v>
+        <v>14.64604931447753</v>
       </c>
     </row>
     <row r="3462" spans="1:2">
@@ -29247,7 +29247,7 @@
         <v>3613</v>
       </c>
       <c r="B3613">
-        <v>72.90142086700965</v>
+        <v>72.90142086700963</v>
       </c>
     </row>
     <row r="3614" spans="1:2">
@@ -29255,7 +29255,7 @@
         <v>3614</v>
       </c>
       <c r="B3614">
-        <v>75.24217925279781</v>
+        <v>75.2421792527978</v>
       </c>
     </row>
     <row r="3615" spans="1:2">
@@ -29423,7 +29423,7 @@
         <v>3635</v>
       </c>
       <c r="B3635">
-        <v>57.16028230947013</v>
+        <v>57.16028230947012</v>
       </c>
     </row>
     <row r="3636" spans="1:2">
@@ -29479,7 +29479,7 @@
         <v>3642</v>
       </c>
       <c r="B3642">
-        <v>0.3207310832902031</v>
+        <v>0.320731083290203</v>
       </c>
     </row>
     <row r="3643" spans="1:2">
@@ -29999,7 +29999,7 @@
         <v>3707</v>
       </c>
       <c r="B3707">
-        <v>34.07126667061336</v>
+        <v>34.07126667061335</v>
       </c>
     </row>
     <row r="3708" spans="1:2">
@@ -30183,7 +30183,7 @@
         <v>3730</v>
       </c>
       <c r="B3730">
-        <v>29.20839754031339</v>
+        <v>29.20839754031338</v>
       </c>
     </row>
     <row r="3731" spans="1:2">
@@ -30215,7 +30215,7 @@
         <v>3734</v>
       </c>
       <c r="B3734">
-        <v>50.2739921140445</v>
+        <v>50.27399211404449</v>
       </c>
     </row>
     <row r="3735" spans="1:2">
@@ -30423,7 +30423,7 @@
         <v>3760</v>
       </c>
       <c r="B3760">
-        <v>69.22279318973244</v>
+        <v>69.22279318973243</v>
       </c>
     </row>
     <row r="3761" spans="1:2">
@@ -30591,7 +30591,7 @@
         <v>3781</v>
       </c>
       <c r="B3781">
-        <v>81.51976090092383</v>
+        <v>81.51976090092381</v>
       </c>
     </row>
     <row r="3782" spans="1:2">
@@ -30807,7 +30807,7 @@
         <v>3808</v>
       </c>
       <c r="B3808">
-        <v>51.73407202865532</v>
+        <v>51.73407202865531</v>
       </c>
     </row>
     <row r="3809" spans="1:2">
@@ -31335,7 +31335,7 @@
         <v>3874</v>
       </c>
       <c r="B3874">
-        <v>20.34789290715334</v>
+        <v>20.34789290715333</v>
       </c>
     </row>
     <row r="3875" spans="1:2">
@@ -31375,7 +31375,7 @@
         <v>3879</v>
       </c>
       <c r="B3879">
-        <v>28.13203553662187</v>
+        <v>28.13203553662186</v>
       </c>
     </row>
     <row r="3880" spans="1:2">
@@ -31503,7 +31503,7 @@
         <v>3895</v>
       </c>
       <c r="B3895">
-        <v>21.2681945827577</v>
+        <v>21.26819458275769</v>
       </c>
     </row>
     <row r="3896" spans="1:2">
@@ -31519,7 +31519,7 @@
         <v>3897</v>
       </c>
       <c r="B3897">
-        <v>36.71799122076397</v>
+        <v>36.71799122076396</v>
       </c>
     </row>
     <row r="3898" spans="1:2">
@@ -31695,7 +31695,7 @@
         <v>3919</v>
       </c>
       <c r="B3919">
-        <v>36.83521963622851</v>
+        <v>36.8352196362285</v>
       </c>
     </row>
     <row r="3920" spans="1:2">
@@ -31887,7 +31887,7 @@
         <v>3943</v>
       </c>
       <c r="B3943">
-        <v>53.60679596570132</v>
+        <v>53.60679596570131</v>
       </c>
     </row>
     <row r="3944" spans="1:2">
@@ -31919,7 +31919,7 @@
         <v>3947</v>
       </c>
       <c r="B3947">
-        <v>72.28948853828476</v>
+        <v>72.28948853828474</v>
       </c>
     </row>
     <row r="3948" spans="1:2">
@@ -31927,7 +31927,7 @@
         <v>3948</v>
       </c>
       <c r="B3948">
-        <v>79.55061659215825</v>
+        <v>79.55061659215824</v>
       </c>
     </row>
     <row r="3949" spans="1:2">
@@ -32175,7 +32175,7 @@
         <v>3979</v>
       </c>
       <c r="B3979">
-        <v>0.498182666489261</v>
+        <v>0.4981826664892609</v>
       </c>
     </row>
     <row r="3980" spans="1:2">
@@ -32639,7 +32639,7 @@
         <v>4037</v>
       </c>
       <c r="B4037">
-        <v>94.13060769452152</v>
+        <v>94.1306076945215</v>
       </c>
     </row>
     <row r="4038" spans="1:2">
@@ -32679,7 +32679,7 @@
         <v>4042</v>
       </c>
       <c r="B4042">
-        <v>73.68304132711945</v>
+        <v>73.68304132711944</v>
       </c>
     </row>
     <row r="4043" spans="1:2">
@@ -32687,7 +32687,7 @@
         <v>4043</v>
       </c>
       <c r="B4043">
-        <v>76.09061990972241</v>
+        <v>76.09061990972239</v>
       </c>
     </row>
     <row r="4044" spans="1:2">
@@ -32727,7 +32727,7 @@
         <v>4048</v>
       </c>
       <c r="B4048">
-        <v>85.4003145238387</v>
+        <v>85.40031452383869</v>
       </c>
     </row>
     <row r="4049" spans="1:2">
@@ -33247,7 +33247,7 @@
         <v>4113</v>
       </c>
       <c r="B4113">
-        <v>52.36329554866123</v>
+        <v>52.36329554866122</v>
       </c>
     </row>
     <row r="4114" spans="1:2">
@@ -33471,7 +33471,7 @@
         <v>4141</v>
       </c>
       <c r="B4141">
-        <v>65.69656245255914</v>
+        <v>65.69656245255912</v>
       </c>
     </row>
     <row r="4142" spans="1:2">
@@ -33495,7 +33495,7 @@
         <v>4144</v>
       </c>
       <c r="B4144">
-        <v>59.44828790829925</v>
+        <v>59.44828790829924</v>
       </c>
     </row>
     <row r="4145" spans="1:2">
@@ -34047,7 +34047,7 @@
         <v>4213</v>
       </c>
       <c r="B4213">
-        <v>78.78423582605883</v>
+        <v>78.78423582605882</v>
       </c>
     </row>
     <row r="4214" spans="1:2">
@@ -34359,7 +34359,7 @@
         <v>4252</v>
       </c>
       <c r="B4252">
-        <v>75.00830856394606</v>
+        <v>75.00830856394604</v>
       </c>
     </row>
     <row r="4253" spans="1:2">
@@ -34439,7 +34439,7 @@
         <v>4262</v>
       </c>
       <c r="B4262">
-        <v>62.3168672347165</v>
+        <v>62.31686723471649</v>
       </c>
     </row>
     <row r="4263" spans="1:2">
@@ -34583,7 +34583,7 @@
         <v>4280</v>
       </c>
       <c r="B4280">
-        <v>39.33452945393246</v>
+        <v>39.33452945393245</v>
       </c>
     </row>
     <row r="4281" spans="1:2">
@@ -34623,7 +34623,7 @@
         <v>4285</v>
       </c>
       <c r="B4285">
-        <v>54.99536654687877</v>
+        <v>54.99536654687876</v>
       </c>
     </row>
     <row r="4286" spans="1:2">
@@ -34639,7 +34639,7 @@
         <v>4287</v>
       </c>
       <c r="B4287">
-        <v>62.39101420749782</v>
+        <v>62.39101420749781</v>
       </c>
     </row>
     <row r="4288" spans="1:2">
@@ -34743,7 +34743,7 @@
         <v>4300</v>
       </c>
       <c r="B4300">
-        <v>87.42250469060198</v>
+        <v>87.42250469060197</v>
       </c>
     </row>
     <row r="4301" spans="1:2">
@@ -34767,7 +34767,7 @@
         <v>4303</v>
       </c>
       <c r="B4303">
-        <v>49.77489213520423</v>
+        <v>49.77489213520422</v>
       </c>
     </row>
     <row r="4304" spans="1:2">
@@ -34799,7 +34799,7 @@
         <v>4307</v>
       </c>
       <c r="B4307">
-        <v>58.82668423529854</v>
+        <v>58.82668423529853</v>
       </c>
     </row>
     <row r="4308" spans="1:2">
@@ -34823,7 +34823,7 @@
         <v>4310</v>
       </c>
       <c r="B4310">
-        <v>81.60445843109696</v>
+        <v>81.60445843109694</v>
       </c>
     </row>
     <row r="4311" spans="1:2">
@@ -35327,7 +35327,7 @@
         <v>4373</v>
       </c>
       <c r="B4373">
-        <v>70.53164844839401</v>
+        <v>70.53164844839399</v>
       </c>
     </row>
     <row r="4374" spans="1:2">
@@ -35335,7 +35335,7 @@
         <v>4374</v>
       </c>
       <c r="B4374">
-        <v>59.6496277118596</v>
+        <v>59.64962771185959</v>
       </c>
     </row>
     <row r="4375" spans="1:2">
@@ -35359,7 +35359,7 @@
         <v>4377</v>
       </c>
       <c r="B4377">
-        <v>62.41885595617065</v>
+        <v>62.41885595617064</v>
       </c>
     </row>
     <row r="4378" spans="1:2">
@@ -35391,7 +35391,7 @@
         <v>4381</v>
       </c>
       <c r="B4381">
-        <v>89.25976703196996</v>
+        <v>89.25976703196994</v>
       </c>
     </row>
     <row r="4382" spans="1:2">
@@ -35511,7 +35511,7 @@
         <v>4396</v>
       </c>
       <c r="B4396">
-        <v>86.08522154119026</v>
+        <v>86.08522154119025</v>
       </c>
     </row>
     <row r="4397" spans="1:2">
@@ -35527,7 +35527,7 @@
         <v>4398</v>
       </c>
       <c r="B4398">
-        <v>53.42567806380861</v>
+        <v>53.4256780638086</v>
       </c>
     </row>
     <row r="4399" spans="1:2">
@@ -35551,7 +35551,7 @@
         <v>4401</v>
       </c>
       <c r="B4401">
-        <v>60.39607964733004</v>
+        <v>60.39607964733003</v>
       </c>
     </row>
     <row r="4402" spans="1:2">
@@ -35575,7 +35575,7 @@
         <v>4404</v>
       </c>
       <c r="B4404">
-        <v>83.03581738391897</v>
+        <v>83.03581738391895</v>
       </c>
     </row>
     <row r="4405" spans="1:2">
@@ -35599,7 +35599,7 @@
         <v>4407</v>
       </c>
       <c r="B4407">
-        <v>82.0833365082696</v>
+        <v>82.08333650826958</v>
       </c>
     </row>
     <row r="4408" spans="1:2">
@@ -35895,7 +35895,7 @@
         <v>4444</v>
       </c>
       <c r="B4444">
-        <v>52.57723740688401</v>
+        <v>52.577237406884</v>
       </c>
     </row>
     <row r="4445" spans="1:2">
@@ -36167,7 +36167,7 @@
         <v>4478</v>
       </c>
       <c r="B4478">
-        <v>78.70276207731098</v>
+        <v>78.70276207731096</v>
       </c>
     </row>
     <row r="4479" spans="1:2">
@@ -36695,7 +36695,7 @@
         <v>4544</v>
       </c>
       <c r="B4544">
-        <v>71.20190191381251</v>
+        <v>71.20190191381249</v>
       </c>
     </row>
     <row r="4545" spans="1:2">
@@ -36711,7 +36711,7 @@
         <v>4546</v>
       </c>
       <c r="B4546">
-        <v>71.39269115998104</v>
+        <v>71.39269115998103</v>
       </c>
     </row>
     <row r="4547" spans="1:2">
@@ -36727,7 +36727,7 @@
         <v>4548</v>
       </c>
       <c r="B4548">
-        <v>75.12758847668123</v>
+        <v>75.12758847668121</v>
       </c>
     </row>
     <row r="4549" spans="1:2">
@@ -36759,7 +36759,7 @@
         <v>4552</v>
       </c>
       <c r="B4552">
-        <v>66.80466404973768</v>
+        <v>66.80466404973767</v>
       </c>
     </row>
     <row r="4553" spans="1:2">
@@ -36871,7 +36871,7 @@
         <v>4566</v>
       </c>
       <c r="B4566">
-        <v>50.82936173230775</v>
+        <v>50.82936173230774</v>
       </c>
     </row>
     <row r="4567" spans="1:2">
@@ -36903,7 +36903,7 @@
         <v>4570</v>
       </c>
       <c r="B4570">
-        <v>47.80545475539999</v>
+        <v>47.80545475539998</v>
       </c>
     </row>
     <row r="4571" spans="1:2">
@@ -37047,7 +37047,7 @@
         <v>4588</v>
       </c>
       <c r="B4588">
-        <v>36.50668700188914</v>
+        <v>36.50668700188913</v>
       </c>
     </row>
     <row r="4589" spans="1:2">
@@ -37119,7 +37119,7 @@
         <v>4597</v>
       </c>
       <c r="B4597">
-        <v>59.9248214171626</v>
+        <v>59.92482141716259</v>
       </c>
     </row>
     <row r="4598" spans="1:2">
@@ -37127,7 +37127,7 @@
         <v>4598</v>
       </c>
       <c r="B4598">
-        <v>67.54320306716427</v>
+        <v>67.54320306716426</v>
       </c>
     </row>
     <row r="4599" spans="1:2">
@@ -37295,7 +37295,7 @@
         <v>4619</v>
       </c>
       <c r="B4619">
-        <v>61.00771890501627</v>
+        <v>61.00771890501626</v>
       </c>
     </row>
     <row r="4620" spans="1:2">
@@ -37319,7 +37319,7 @@
         <v>4622</v>
       </c>
       <c r="B4622">
-        <v>60.48751781139238</v>
+        <v>60.48751781139237</v>
       </c>
     </row>
     <row r="4623" spans="1:2">
@@ -37327,7 +37327,7 @@
         <v>4623</v>
       </c>
       <c r="B4623">
-        <v>60.66394657666651</v>
+        <v>60.6639465766665</v>
       </c>
     </row>
     <row r="4624" spans="1:2">
@@ -38047,7 +38047,7 @@
         <v>4713</v>
       </c>
       <c r="B4713">
-        <v>78.1013803059779</v>
+        <v>78.10138030597788</v>
       </c>
     </row>
     <row r="4714" spans="1:2">
@@ -38079,7 +38079,7 @@
         <v>4717</v>
       </c>
       <c r="B4717">
-        <v>74.34801951384205</v>
+        <v>74.34801951384203</v>
       </c>
     </row>
     <row r="4718" spans="1:2">
@@ -38279,7 +38279,7 @@
         <v>4742</v>
       </c>
       <c r="B4742">
-        <v>74.13935293431517</v>
+        <v>74.13935293431516</v>
       </c>
     </row>
     <row r="4743" spans="1:2">
@@ -38295,7 +38295,7 @@
         <v>4744</v>
       </c>
       <c r="B4744">
-        <v>75.65540941731031</v>
+        <v>75.6554094173103</v>
       </c>
     </row>
     <row r="4745" spans="1:2">
@@ -38439,7 +38439,7 @@
         <v>4762</v>
       </c>
       <c r="B4762">
-        <v>79.1127684603982</v>
+        <v>79.11276846039819</v>
       </c>
     </row>
     <row r="4763" spans="1:2">
@@ -38623,7 +38623,7 @@
         <v>4785</v>
       </c>
       <c r="B4785">
-        <v>74.25189221316113</v>
+        <v>74.25189221316111</v>
       </c>
     </row>
     <row r="4786" spans="1:2">
@@ -38639,7 +38639,7 @@
         <v>4787</v>
       </c>
       <c r="B4787">
-        <v>82.08069886892164</v>
+        <v>82.08069886892163</v>
       </c>
     </row>
     <row r="4788" spans="1:2">
@@ -38823,7 +38823,7 @@
         <v>4810</v>
       </c>
       <c r="B4810">
-        <v>90.22074696774052</v>
+        <v>90.2207469677405</v>
       </c>
     </row>
     <row r="4811" spans="1:2">
@@ -39335,7 +39335,7 @@
         <v>4874</v>
       </c>
       <c r="B4874">
-        <v>28.92927668309233</v>
+        <v>28.92927668309232</v>
       </c>
     </row>
     <row r="4875" spans="1:2">
@@ -39407,7 +39407,7 @@
         <v>4883</v>
       </c>
       <c r="B4883">
-        <v>108.6349864689102</v>
+        <v>108.6349864689101</v>
       </c>
     </row>
     <row r="4884" spans="1:2">
@@ -39575,7 +39575,7 @@
         <v>4904</v>
       </c>
       <c r="B4904">
-        <v>71.42903196877505</v>
+        <v>71.42903196877504</v>
       </c>
     </row>
     <row r="4905" spans="1:2">
@@ -39607,7 +39607,7 @@
         <v>4908</v>
       </c>
       <c r="B4908">
-        <v>76.68467490508895</v>
+        <v>76.68467490508894</v>
       </c>
     </row>
     <row r="4909" spans="1:2">
@@ -39615,7 +39615,7 @@
         <v>4909</v>
       </c>
       <c r="B4909">
-        <v>84.17234687184767</v>
+        <v>84.17234687184765</v>
       </c>
     </row>
     <row r="4910" spans="1:2">
@@ -39807,7 +39807,7 @@
         <v>4933</v>
       </c>
       <c r="B4933">
-        <v>70.05071887395074</v>
+        <v>70.05071887395073</v>
       </c>
     </row>
     <row r="4934" spans="1:2">
@@ -39823,7 +39823,7 @@
         <v>4935</v>
       </c>
       <c r="B4935">
-        <v>77.72185331091146</v>
+        <v>77.72185331091144</v>
       </c>
     </row>
     <row r="4936" spans="1:2">
@@ -39935,7 +39935,7 @@
         <v>4949</v>
       </c>
       <c r="B4949">
-        <v>70.30246689616084</v>
+        <v>70.30246689616082</v>
       </c>
     </row>
     <row r="4950" spans="1:2">
@@ -40015,7 +40015,7 @@
         <v>4959</v>
       </c>
       <c r="B4959">
-        <v>88.43184134775166</v>
+        <v>88.43184134775164</v>
       </c>
     </row>
     <row r="4960" spans="1:2">
@@ -40135,7 +40135,7 @@
         <v>4974</v>
       </c>
       <c r="B4974">
-        <v>36.76136573448585</v>
+        <v>36.76136573448584</v>
       </c>
     </row>
     <row r="4975" spans="1:2">
@@ -40175,7 +40175,7 @@
         <v>4979</v>
       </c>
       <c r="B4979">
-        <v>39.88227922519052</v>
+        <v>39.88227922519051</v>
       </c>
     </row>
     <row r="4980" spans="1:2">
@@ -40207,7 +40207,7 @@
         <v>4983</v>
       </c>
       <c r="B4983">
-        <v>52.46499119907672</v>
+        <v>52.46499119907671</v>
       </c>
     </row>
     <row r="4984" spans="1:2">
@@ -40711,7 +40711,7 @@
         <v>5046</v>
       </c>
       <c r="B5046">
-        <v>38.00457308048728</v>
+        <v>38.00457308048727</v>
       </c>
     </row>
     <row r="5047" spans="1:2">
@@ -40767,7 +40767,7 @@
         <v>5053</v>
       </c>
       <c r="B5053">
-        <v>50.35077672617377</v>
+        <v>50.35077672617376</v>
       </c>
     </row>
     <row r="5054" spans="1:2">
@@ -40911,7 +40911,7 @@
         <v>5071</v>
       </c>
       <c r="B5071">
-        <v>35.24062011487213</v>
+        <v>35.24062011487212</v>
       </c>
     </row>
     <row r="5072" spans="1:2">
@@ -40975,7 +40975,7 @@
         <v>5079</v>
       </c>
       <c r="B5079">
-        <v>67.45440254244988</v>
+        <v>67.45440254244987</v>
       </c>
     </row>
     <row r="5080" spans="1:2">
@@ -41143,7 +41143,7 @@
         <v>5100</v>
       </c>
       <c r="B5100">
-        <v>63.85871396911384</v>
+        <v>63.85871396911383</v>
       </c>
     </row>
     <row r="5101" spans="1:2">
@@ -41271,7 +41271,7 @@
         <v>5116</v>
       </c>
       <c r="B5116">
-        <v>90.60027396280697</v>
+        <v>90.60027396280694</v>
       </c>
     </row>
     <row r="5117" spans="1:2">
@@ -41319,7 +41319,7 @@
         <v>5122</v>
       </c>
       <c r="B5122">
-        <v>72.90933378505351</v>
+        <v>72.90933378505349</v>
       </c>
     </row>
     <row r="5123" spans="1:2">
@@ -41327,7 +41327,7 @@
         <v>5123</v>
       </c>
       <c r="B5123">
-        <v>71.62773413298744</v>
+        <v>71.62773413298743</v>
       </c>
     </row>
     <row r="5124" spans="1:2">
@@ -41343,7 +41343,7 @@
         <v>5125</v>
       </c>
       <c r="B5125">
-        <v>63.43815702863481</v>
+        <v>63.4381570286348</v>
       </c>
     </row>
     <row r="5126" spans="1:2">
@@ -41351,7 +41351,7 @@
         <v>5126</v>
       </c>
       <c r="B5126">
-        <v>70.8607672248107</v>
+        <v>70.86076722481069</v>
       </c>
     </row>
     <row r="5127" spans="1:2">
@@ -41503,7 +41503,7 @@
         <v>5145</v>
       </c>
       <c r="B5145">
-        <v>56.52607658180698</v>
+        <v>56.52607658180697</v>
       </c>
     </row>
     <row r="5146" spans="1:2">
@@ -41527,7 +41527,7 @@
         <v>5148</v>
       </c>
       <c r="B5148">
-        <v>62.2380311253166</v>
+        <v>62.23803112531659</v>
       </c>
     </row>
     <row r="5149" spans="1:2">
@@ -41535,7 +41535,7 @@
         <v>5149</v>
       </c>
       <c r="B5149">
-        <v>65.96941158955285</v>
+        <v>65.96941158955283</v>
       </c>
     </row>
     <row r="5150" spans="1:2">
@@ -42127,7 +42127,7 @@
         <v>5223</v>
       </c>
       <c r="B5223">
-        <v>43.7036324982958</v>
+        <v>43.70363249829579</v>
       </c>
     </row>
     <row r="5224" spans="1:2">
@@ -42423,7 +42423,7 @@
         <v>5260</v>
       </c>
       <c r="B5260">
-        <v>5.777983448520021</v>
+        <v>5.77798344852002</v>
       </c>
     </row>
     <row r="5261" spans="1:2">
@@ -42463,7 +42463,7 @@
         <v>5265</v>
       </c>
       <c r="B5265">
-        <v>35.57179038855945</v>
+        <v>35.57179038855944</v>
       </c>
     </row>
     <row r="5266" spans="1:2">
@@ -42511,7 +42511,7 @@
         <v>5271</v>
       </c>
       <c r="B5271">
-        <v>53.91510669837305</v>
+        <v>53.91510669837304</v>
       </c>
     </row>
     <row r="5272" spans="1:2">
@@ -42815,7 +42815,7 @@
         <v>5309</v>
       </c>
       <c r="B5309">
-        <v>37.19188709027937</v>
+        <v>37.19188709027936</v>
       </c>
     </row>
     <row r="5310" spans="1:2">
@@ -42879,7 +42879,7 @@
         <v>5317</v>
       </c>
       <c r="B5317">
-        <v>62.22279143130621</v>
+        <v>62.2227914313062</v>
       </c>
     </row>
     <row r="5318" spans="1:2">
@@ -42903,7 +42903,7 @@
         <v>5320</v>
       </c>
       <c r="B5320">
-        <v>61.94730465496454</v>
+        <v>61.94730465496453</v>
       </c>
     </row>
     <row r="5321" spans="1:2">
@@ -43431,7 +43431,7 @@
         <v>5386</v>
       </c>
       <c r="B5386">
-        <v>85.62216930010534</v>
+        <v>85.62216930010533</v>
       </c>
     </row>
     <row r="5387" spans="1:2">
@@ -43455,7 +43455,7 @@
         <v>5389</v>
       </c>
       <c r="B5389">
-        <v>94.47760380429656</v>
+        <v>94.47760380429654</v>
       </c>
     </row>
     <row r="5390" spans="1:2">
@@ -43599,7 +43599,7 @@
         <v>5407</v>
       </c>
       <c r="B5407">
-        <v>60.92888279561637</v>
+        <v>60.92888279561636</v>
       </c>
     </row>
     <row r="5408" spans="1:2">
@@ -43647,7 +43647,7 @@
         <v>5413</v>
       </c>
       <c r="B5413">
-        <v>88.92390762166406</v>
+        <v>88.92390762166404</v>
       </c>
     </row>
     <row r="5414" spans="1:2">
@@ -43767,7 +43767,7 @@
         <v>5428</v>
       </c>
       <c r="B5428">
-        <v>64.5527061886639</v>
+        <v>64.55270618866389</v>
       </c>
     </row>
     <row r="5429" spans="1:2">
@@ -44039,7 +44039,7 @@
         <v>5462</v>
       </c>
       <c r="B5462">
-        <v>33.17681386061894</v>
+        <v>33.17681386061893</v>
       </c>
     </row>
     <row r="5463" spans="1:2">
@@ -44767,7 +44767,7 @@
         <v>5553</v>
       </c>
       <c r="B5553">
-        <v>59.92247684885331</v>
+        <v>59.9224768488533</v>
       </c>
     </row>
     <row r="5554" spans="1:2">
@@ -44783,7 +44783,7 @@
         <v>5555</v>
       </c>
       <c r="B5555">
-        <v>65.27864315142806</v>
+        <v>65.27864315142804</v>
       </c>
     </row>
     <row r="5556" spans="1:2">
@@ -44815,7 +44815,7 @@
         <v>5559</v>
       </c>
       <c r="B5559">
-        <v>79.03862148761688</v>
+        <v>79.03862148761687</v>
       </c>
     </row>
     <row r="5560" spans="1:2">
@@ -44823,7 +44823,7 @@
         <v>5560</v>
       </c>
       <c r="B5560">
-        <v>77.15622620629506</v>
+        <v>77.15622620629505</v>
       </c>
     </row>
     <row r="5561" spans="1:2">
@@ -44927,7 +44927,7 @@
         <v>5573</v>
       </c>
       <c r="B5573">
-        <v>61.74889556179081</v>
+        <v>61.7488955617908</v>
       </c>
     </row>
     <row r="5574" spans="1:2">
@@ -44935,7 +44935,7 @@
         <v>5574</v>
       </c>
       <c r="B5574">
-        <v>50.59754254072662</v>
+        <v>50.59754254072661</v>
       </c>
     </row>
     <row r="5575" spans="1:2">
@@ -44983,7 +44983,7 @@
         <v>5580</v>
       </c>
       <c r="B5580">
-        <v>63.88919335713462</v>
+        <v>63.88919335713461</v>
       </c>
     </row>
     <row r="5581" spans="1:2">
@@ -44991,7 +44991,7 @@
         <v>5581</v>
       </c>
       <c r="B5581">
-        <v>71.50786807817495</v>
+        <v>71.50786807817494</v>
       </c>
     </row>
     <row r="5582" spans="1:2">
@@ -45135,7 +45135,7 @@
         <v>5599</v>
       </c>
       <c r="B5599">
-        <v>34.41005679130588</v>
+        <v>34.41005679130587</v>
       </c>
     </row>
     <row r="5600" spans="1:2">
@@ -45199,7 +45199,7 @@
         <v>5607</v>
       </c>
       <c r="B5607">
-        <v>43.35751560163675</v>
+        <v>43.35751560163674</v>
       </c>
     </row>
     <row r="5608" spans="1:2">
@@ -45567,7 +45567,7 @@
         <v>5653</v>
       </c>
       <c r="B5653">
-        <v>44.09371005075405</v>
+        <v>44.09371005075404</v>
       </c>
     </row>
     <row r="5654" spans="1:2">
@@ -45575,7 +45575,7 @@
         <v>5654</v>
       </c>
       <c r="B5654">
-        <v>49.1025871725151</v>
+        <v>49.10258717251509</v>
       </c>
     </row>
     <row r="5655" spans="1:2">
@@ -45591,7 +45591,7 @@
         <v>5656</v>
       </c>
       <c r="B5656">
-        <v>45.37530970282011</v>
+        <v>45.3753097028201</v>
       </c>
     </row>
     <row r="5657" spans="1:2">
@@ -46079,7 +46079,7 @@
         <v>5717</v>
       </c>
       <c r="B5717">
-        <v>73.74722388458629</v>
+        <v>73.74722388458628</v>
       </c>
     </row>
     <row r="5718" spans="1:2">
@@ -46087,7 +46087,7 @@
         <v>5718</v>
       </c>
       <c r="B5718">
-        <v>54.80369808759425</v>
+        <v>54.80369808759424</v>
       </c>
     </row>
     <row r="5719" spans="1:2">
@@ -46095,7 +46095,7 @@
         <v>5719</v>
       </c>
       <c r="B5719">
-        <v>55.00005568349735</v>
+        <v>55.00005568349734</v>
       </c>
     </row>
     <row r="5720" spans="1:2">
@@ -46143,7 +46143,7 @@
         <v>5725</v>
       </c>
       <c r="B5725">
-        <v>74.35065715319</v>
+        <v>74.35065715318999</v>
       </c>
     </row>
     <row r="5726" spans="1:2">
@@ -46167,7 +46167,7 @@
         <v>5728</v>
       </c>
       <c r="B5728">
-        <v>62.91824900604958</v>
+        <v>62.91824900604957</v>
       </c>
     </row>
     <row r="5729" spans="1:2">
@@ -46335,7 +46335,7 @@
         <v>5749</v>
       </c>
       <c r="B5749">
-        <v>67.17950190818554</v>
+        <v>67.17950190818553</v>
       </c>
     </row>
     <row r="5750" spans="1:2">
@@ -46463,7 +46463,7 @@
         <v>5765</v>
       </c>
       <c r="B5765">
-        <v>60.11619680540846</v>
+        <v>60.11619680540845</v>
       </c>
     </row>
     <row r="5766" spans="1:2">
@@ -46551,7 +46551,7 @@
         <v>5776</v>
       </c>
       <c r="B5776">
-        <v>55.02584593489955</v>
+        <v>55.02584593489954</v>
       </c>
     </row>
     <row r="5777" spans="1:2">
@@ -46703,7 +46703,7 @@
         <v>5795</v>
       </c>
       <c r="B5795">
-        <v>36.00231174435297</v>
+        <v>36.00231174435296</v>
       </c>
     </row>
     <row r="5796" spans="1:2">
@@ -46911,7 +46911,7 @@
         <v>5821</v>
       </c>
       <c r="B5821">
-        <v>57.08173927110889</v>
+        <v>57.08173927110888</v>
       </c>
     </row>
     <row r="5822" spans="1:2">
@@ -46935,7 +46935,7 @@
         <v>5824</v>
       </c>
       <c r="B5824">
-        <v>59.68303781026699</v>
+        <v>59.68303781026698</v>
       </c>
     </row>
     <row r="5825" spans="1:2">
@@ -47607,7 +47607,7 @@
         <v>5908</v>
       </c>
       <c r="B5908">
-        <v>44.98259451101391</v>
+        <v>44.9825945110139</v>
       </c>
     </row>
     <row r="5909" spans="1:2">
@@ -47671,7 +47671,7 @@
         <v>5916</v>
       </c>
       <c r="B5916">
-        <v>32.43036192514849</v>
+        <v>32.43036192514848</v>
       </c>
     </row>
     <row r="5917" spans="1:2">
@@ -47831,7 +47831,7 @@
         <v>5936</v>
       </c>
       <c r="B5936">
-        <v>0.8936644489004268</v>
+        <v>0.8936644489004267</v>
       </c>
     </row>
     <row r="5937" spans="1:2">
@@ -47871,7 +47871,7 @@
         <v>5941</v>
       </c>
       <c r="B5941">
-        <v>30.45799383495764</v>
+        <v>30.45799383495763</v>
       </c>
     </row>
     <row r="5942" spans="1:2">
@@ -48183,7 +48183,7 @@
         <v>5980</v>
       </c>
       <c r="B5980">
-        <v>4.575512976892521</v>
+        <v>4.57551297689252</v>
       </c>
     </row>
     <row r="5981" spans="1:2">
@@ -48263,7 +48263,7 @@
         <v>5990</v>
       </c>
       <c r="B5990">
-        <v>58.25841949133419</v>
+        <v>58.25841949133418</v>
       </c>
     </row>
     <row r="5991" spans="1:2">
@@ -48807,7 +48807,7 @@
         <v>6058</v>
       </c>
       <c r="B6058">
-        <v>46.6006397154632</v>
+        <v>46.60063971546319</v>
       </c>
     </row>
     <row r="6059" spans="1:2">
@@ -49023,7 +49023,7 @@
         <v>6085</v>
       </c>
       <c r="B6085">
-        <v>51.79532387573554</v>
+        <v>51.79532387573553</v>
       </c>
     </row>
     <row r="6086" spans="1:2">
@@ -49039,7 +49039,7 @@
         <v>6087</v>
       </c>
       <c r="B6087">
-        <v>60.31724353793014</v>
+        <v>60.31724353793013</v>
       </c>
     </row>
     <row r="6088" spans="1:2">
@@ -49215,7 +49215,7 @@
         <v>6109</v>
       </c>
       <c r="B6109">
-        <v>48.64656863635805</v>
+        <v>48.64656863635804</v>
       </c>
     </row>
     <row r="6110" spans="1:2">
@@ -49559,7 +49559,7 @@
         <v>6152</v>
       </c>
       <c r="B6152">
-        <v>19.61357411268348</v>
+        <v>19.61357411268347</v>
       </c>
     </row>
     <row r="6153" spans="1:2">
@@ -49615,7 +49615,7 @@
         <v>6159</v>
       </c>
       <c r="B6159">
-        <v>45.14085287189104</v>
+        <v>45.14085287189103</v>
       </c>
     </row>
     <row r="6160" spans="1:2">
@@ -50143,7 +50143,7 @@
         <v>6225</v>
       </c>
       <c r="B6225">
-        <v>38.04560302589987</v>
+        <v>38.04560302589986</v>
       </c>
     </row>
     <row r="6226" spans="1:2">
@@ -50191,7 +50191,7 @@
         <v>6231</v>
       </c>
       <c r="B6231">
-        <v>56.51611216649249</v>
+        <v>56.51611216649248</v>
       </c>
     </row>
     <row r="6232" spans="1:2">
@@ -50295,7 +50295,7 @@
         <v>6244</v>
       </c>
       <c r="B6244">
-        <v>56.35580230834474</v>
+        <v>56.35580230834473</v>
       </c>
     </row>
     <row r="6245" spans="1:2">
@@ -50303,7 +50303,7 @@
         <v>6245</v>
       </c>
       <c r="B6245">
-        <v>44.63882218266415</v>
+        <v>44.63882218266414</v>
       </c>
     </row>
     <row r="6246" spans="1:2">
@@ -50367,7 +50367,7 @@
         <v>6253</v>
       </c>
       <c r="B6253">
-        <v>49.36195504173039</v>
+        <v>49.36195504173038</v>
       </c>
     </row>
     <row r="6254" spans="1:2">
@@ -50383,7 +50383,7 @@
         <v>6255</v>
       </c>
       <c r="B6255">
-        <v>54.61261577038705</v>
+        <v>54.61261577038704</v>
       </c>
     </row>
     <row r="6256" spans="1:2">
@@ -50527,7 +50527,7 @@
         <v>6273</v>
       </c>
       <c r="B6273">
-        <v>22.51318966209496</v>
+        <v>22.51318966209495</v>
       </c>
     </row>
     <row r="6274" spans="1:2">
@@ -50567,7 +50567,7 @@
         <v>6278</v>
       </c>
       <c r="B6278">
-        <v>60.96932659895163</v>
+        <v>60.96932659895162</v>
       </c>
     </row>
     <row r="6279" spans="1:2">
@@ -50895,7 +50895,7 @@
         <v>6319</v>
       </c>
       <c r="B6319">
-        <v>0.70182893912387</v>
+        <v>0.7018289391238699</v>
       </c>
     </row>
     <row r="6320" spans="1:2">
@@ -50951,7 +50951,7 @@
         <v>6326</v>
       </c>
       <c r="B6326">
-        <v>27.83937479741465</v>
+        <v>27.83937479741464</v>
       </c>
     </row>
     <row r="6327" spans="1:2">
@@ -52303,7 +52303,7 @@
         <v>6495</v>
       </c>
       <c r="B6495">
-        <v>2.025888723271189</v>
+        <v>2.025888723271188</v>
       </c>
     </row>
     <row r="6496" spans="1:2">
@@ -52311,7 +52311,7 @@
         <v>6496</v>
       </c>
       <c r="B6496">
-        <v>0.7495174585348442</v>
+        <v>0.7495174585348441</v>
       </c>
     </row>
     <row r="6497" spans="1:2">
@@ -53031,7 +53031,7 @@
         <v>6586</v>
       </c>
       <c r="B6586">
-        <v>1.265893975104202</v>
+        <v>1.265893975104201</v>
       </c>
     </row>
     <row r="6587" spans="1:2">
@@ -53215,7 +53215,7 @@
         <v>6609</v>
       </c>
       <c r="B6609">
-        <v>6.578565604831218</v>
+        <v>6.578565604831217</v>
       </c>
     </row>
     <row r="6610" spans="1:2">
@@ -53239,7 +53239,7 @@
         <v>6612</v>
       </c>
       <c r="B6612">
-        <v>42.30245986245591</v>
+        <v>42.3024598624559</v>
       </c>
     </row>
     <row r="6613" spans="1:2">
@@ -53383,7 +53383,7 @@
         <v>6630</v>
       </c>
       <c r="B6630">
-        <v>3.014264939735803</v>
+        <v>3.014264939735802</v>
       </c>
     </row>
     <row r="6631" spans="1:2">
@@ -53655,7 +53655,7 @@
         <v>6664</v>
       </c>
       <c r="B6664">
-        <v>46.46817160598827</v>
+        <v>46.46817160598826</v>
       </c>
     </row>
     <row r="6665" spans="1:2">
@@ -55535,7 +55535,7 @@
         <v>6899</v>
       </c>
       <c r="B6899">
-        <v>5.539980458023143</v>
+        <v>5.539980458023142</v>
       </c>
     </row>
     <row r="6900" spans="1:2">
@@ -55751,7 +55751,7 @@
         <v>6926</v>
       </c>
       <c r="B6926">
-        <v>11.72993386558942</v>
+        <v>11.72993386558941</v>
       </c>
     </row>
     <row r="6927" spans="1:2">
@@ -56143,7 +56143,7 @@
         <v>6975</v>
       </c>
       <c r="B6975">
-        <v>4.675157130037379</v>
+        <v>4.675157130037378</v>
       </c>
     </row>
     <row r="6976" spans="1:2">
@@ -57087,7 +57087,7 @@
         <v>7093</v>
       </c>
       <c r="B7093">
-        <v>36.80474024820773</v>
+        <v>36.80474024820772</v>
       </c>
     </row>
     <row r="7094" spans="1:2">
@@ -57303,7 +57303,7 @@
         <v>7120</v>
       </c>
       <c r="B7120">
-        <v>50.51108658432153</v>
+        <v>50.51108658432152</v>
       </c>
     </row>
     <row r="7121" spans="1:2">
@@ -57447,7 +57447,7 @@
         <v>7138</v>
       </c>
       <c r="B7138">
-        <v>31.9928068644271</v>
+        <v>31.99280686442709</v>
       </c>
     </row>
     <row r="7139" spans="1:2">
@@ -57495,7 +57495,7 @@
         <v>7144</v>
       </c>
       <c r="B7144">
-        <v>38.56287340913714</v>
+        <v>38.56287340913713</v>
       </c>
     </row>
     <row r="7145" spans="1:2">
@@ -58255,7 +58255,7 @@
         <v>7239</v>
       </c>
       <c r="B7239">
-        <v>1.99830780782277</v>
+        <v>1.998307807822769</v>
       </c>
     </row>
     <row r="7240" spans="1:2">
@@ -59015,7 +59015,7 @@
         <v>7334</v>
       </c>
       <c r="B7334">
-        <v>3.180993053630242</v>
+        <v>3.180993053630241</v>
       </c>
     </row>
     <row r="7335" spans="1:2">
@@ -59023,7 +59023,7 @@
         <v>7335</v>
       </c>
       <c r="B7335">
-        <v>4.602827197695759</v>
+        <v>4.602827197695758</v>
       </c>
     </row>
     <row r="7336" spans="1:2">
@@ -59799,7 +59799,7 @@
         <v>7432</v>
       </c>
       <c r="B7432">
-        <v>0.7682153908014381</v>
+        <v>0.768215390801438</v>
       </c>
     </row>
     <row r="7433" spans="1:2">
@@ -59999,7 +59999,7 @@
         <v>7457</v>
       </c>
       <c r="B7457">
-        <v>0.4378276167873436</v>
+        <v>0.4378276167873435</v>
       </c>
     </row>
     <row r="7458" spans="1:2">
@@ -65175,7 +65175,7 @@
         <v>8104</v>
       </c>
       <c r="B8104">
-        <v>5.665209712843136</v>
+        <v>5.665209712843135</v>
       </c>
     </row>
     <row r="8105" spans="1:2">
@@ -65343,7 +65343,7 @@
         <v>8125</v>
       </c>
       <c r="B8125">
-        <v>3.673030020438775</v>
+        <v>3.673030020438774</v>
       </c>
     </row>
     <row r="8126" spans="1:2">
@@ -65375,7 +65375,7 @@
         <v>8129</v>
       </c>
       <c r="B8129">
-        <v>4.303455131703195</v>
+        <v>4.303455131703194</v>
       </c>
     </row>
     <row r="8130" spans="1:2">
@@ -65527,7 +65527,7 @@
         <v>8148</v>
       </c>
       <c r="B8148">
-        <v>6.110941455543176</v>
+        <v>6.110941455543175</v>
       </c>
     </row>
     <row r="8149" spans="1:2">
@@ -65743,7 +65743,7 @@
         <v>8175</v>
       </c>
       <c r="B8175">
-        <v>31.53678832827005</v>
+        <v>31.53678832827004</v>
       </c>
     </row>
     <row r="8176" spans="1:2">
@@ -65751,7 +65751,7 @@
         <v>8176</v>
       </c>
       <c r="B8176">
-        <v>28.65434674172412</v>
+        <v>28.65434674172411</v>
       </c>
     </row>
     <row r="8177" spans="1:2">
